--- a/PS4/ate_s.xlsx
+++ b/PS4/ate_s.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -133,12 +133,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -423,18 +423,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="true" customWidth="true"/>
+    <col min="2" max="5" width="9.28515625" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="9.85546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="9.28515625" bestFit="true" customWidth="true"/>
+    <col min="8" max="9" width="9.85546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -448,7 +448,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2">
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
@@ -478,7 +478,7 @@
         <v>CI high</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -507,7 +507,7 @@
         <v>-13916.348103368426</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,7 +536,7 @@
         <v>8673.6940747930566</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +565,7 @@
         <v>6713.2853311371355</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -594,7 +594,7 @@
         <v>6306.6544608227696</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -623,7 +623,7 @@
         <v>-7782.1001313035013</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -652,7 +652,7 @@
         <v>-3943.2750660011407</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -681,7 +681,7 @@
         <v>-4404.4413766712514</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -710,7 +710,7 @@
         <v>-3583.4687079922769</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -739,7 +739,7 @@
         <v>6943.1893041122612</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -768,7 +768,7 @@
         <v>4652.4689852531192</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -797,7 +797,7 @@
         <v>-7453.5796903073642</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -826,7 +826,7 @@
         <v>2121.2505776194512</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -855,7 +855,7 @@
         <v>12.827741139499267</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -884,7 +884,7 @@
         <v>-13359.032778321192</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -913,7 +913,7 @@
         <v>-1559.157717767981</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -942,7 +942,7 @@
         <v>-1656.3703195732423</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -971,7 +971,7 @@
         <v>402.15629797678957</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>26698.331071941109</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
